--- a/outputs/members.xlsx
+++ b/outputs/members.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF154"/>
+  <dimension ref="A1:AG155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>web_status</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>refuge</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -727,6 +732,11 @@
       <c r="AF2" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -774,7 +784,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -834,7 +844,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -844,7 +854,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC3" t="b">
@@ -859,6 +869,11 @@
       <c r="AF3" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
         </is>
       </c>
     </row>
@@ -997,6 +1012,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1129,6 +1149,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1261,6 +1286,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1397,6 +1427,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1482,7 +1517,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1506,7 +1541,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1516,7 +1551,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AC8" t="b">
@@ -1531,6 +1566,11 @@
       <c r="AF8" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1658,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1642,7 +1682,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1652,7 +1692,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC9" t="b">
@@ -1667,6 +1707,11 @@
       <c r="AF9" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1799,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1778,7 +1823,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1788,7 +1833,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC10" t="b">
@@ -1803,6 +1848,11 @@
       <c r="AF10" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
         </is>
       </c>
     </row>
@@ -1941,6 +1991,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2077,6 +2132,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chameyrat</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2084,14 +2144,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(&lt;CustomActivity name='je c pas quoi mettre' emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>je c pas quoi mettre</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>f78134c2e57e7fcdb85c4ba5ed7648f3</t>
@@ -2166,7 +2222,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2190,7 +2246,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2200,7 +2256,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC13" t="b">
@@ -2215,6 +2271,11 @@
       <c r="AF13" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
         </is>
       </c>
     </row>
@@ -2353,6 +2414,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2485,6 +2551,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2617,6 +2688,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2749,6 +2825,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Poulainville</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2756,12 +2837,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='2013 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
+          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='2033 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='2013 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
+          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='2033 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2887,6 +2968,11 @@
       <c r="AF18" t="inlineStr">
         <is>
           <t>online</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -3025,6 +3111,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Puech de Barret - Le Garric</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3036,14 +3127,10 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>e9ab554cbad63aa9f05db435ba3b0bdb</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/231129972755005440/e9ab554cbad63aa9f05db435ba3b0bdb.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -3051,25 +3138,25 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I20" s="2" t="n">
-        <v>42642.7972186574</v>
+        <v>44310.2560015625</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3079,12 +3166,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7903</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Elwenn - Châteaubourg (35)</t>
+          <t>Cécile_Encadrante_CJ LUYNES (37)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3098,14 +3185,14 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>2.311299727550054e+17</v>
+        <v>8.3539680206848e+17</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>44260.74905961806</v>
+        <v>44310.26117004082</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>&lt;@!231129972755005440&gt;</t>
+          <t>&lt;@835396802068480000&gt;</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -3115,14 +3202,10 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Oyoelle</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Elwenn - Châteaubourg (35)</t>
-        </is>
-      </c>
+          <t>Cécile_Encadrante_CJ LUYNES (37)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="b">
         <v>0</v>
       </c>
@@ -3139,7 +3222,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3152,13 +3235,18 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -3172,10 +3260,14 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>e9ab554cbad63aa9f05db435ba3b0bdb</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/avatars/231129972755005440/e9ab554cbad63aa9f05db435ba3b0bdb.webp?size=1024</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -3183,25 +3275,25 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>44258.80574394676</v>
+        <v>42642.7972186574</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3211,12 +3303,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>7903</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lony - Poulainville (80)</t>
+          <t>Elwenn - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3230,14 +3322,14 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>8.167518530260174e+17</v>
+        <v>2.311299727550054e+17</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>44258.80708990741</v>
+        <v>44260.74905961806</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>&lt;@!816751853026017361&gt;</t>
+          <t>&lt;@!231129972755005440&gt;</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3247,12 +3339,12 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Lony cj poulainville</t>
+          <t>Oyoelle</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lony - Poulainville (80)</t>
+          <t>Elwenn - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="W21" t="b">
@@ -3271,7 +3363,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3284,13 +3376,18 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -3304,14 +3401,10 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>c2be3540ad8ca71c775a8167a9f24378</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/653187728032399391/c2be3540ad8ca71c775a8167a9f24378.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -3328,16 +3421,16 @@
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>43807.45474541667</v>
+        <v>44258.80574394676</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3347,12 +3440,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8079</t>
+          <t>5437</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Nathael - Bordeaux (33)</t>
+          <t>Lony - Poulainville (80)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3366,14 +3459,14 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>6.531877280323994e+17</v>
+        <v>8.167518530260174e+17</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>44245.61133541667</v>
+        <v>44258.80708990741</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>&lt;@!653187728032399391&gt;</t>
+          <t>&lt;@!816751853026017361&gt;</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -3383,12 +3476,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>ImnotnathaYT</t>
+          <t>Lony cj poulainville</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Nathael - Bordeaux (33)</t>
+          <t>Lony - Poulainville (80)</t>
         </is>
       </c>
       <c r="W22" t="b">
@@ -3397,7 +3490,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=256&gt;</t>
+          <t>&lt;PublicUserFlags value=0&gt;</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3407,7 +3500,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046525182640158 name='Club Jeunes de Bordeaux'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3427,6 +3520,11 @@
       <c r="AF22" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Poulainville</t>
         </is>
       </c>
     </row>
@@ -3440,10 +3538,14 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>c2be3540ad8ca71c775a8167a9f24378</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/653187728032399391/c2be3540ad8ca71c775a8167a9f24378.webp?size=1024</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -3460,16 +3562,16 @@
         </is>
       </c>
       <c r="I23" s="2" t="n">
-        <v>44270.72760023148</v>
+        <v>43807.45474541667</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3479,12 +3581,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0978</t>
+          <t>8079</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Marine - La Roche-sur-Yon (85)</t>
+          <t>Nathael - Bordeaux (33)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3498,14 +3600,14 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>8.210721890800763e+17</v>
+        <v>6.531877280323994e+17</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>44270.72867565972</v>
+        <v>44245.61133541667</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>&lt;@!821072189080076328&gt;</t>
+          <t>&lt;@!653187728032399391&gt;</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -3515,12 +3617,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Marine du CJ de la Roche sur Yon</t>
+          <t>ImnotnathaYT</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Marine - La Roche-sur-Yon (85)</t>
+          <t>Nathael - Bordeaux (33)</t>
         </is>
       </c>
       <c r="W23" t="b">
@@ -3529,7 +3631,7 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=0&gt;</t>
+          <t>&lt;PublicUserFlags value=256&gt;</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3539,7 +3641,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046525182640158 name='Club Jeunes de Bordeaux'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3559,6 +3661,11 @@
       <c r="AF23" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Bordeaux</t>
         </is>
       </c>
     </row>
@@ -3572,14 +3679,10 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>098db561f25967f48d00a4bdcdf90132</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/752240686992064693/098db561f25967f48d00a4bdcdf90132.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -3596,16 +3699,16 @@
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>44080.78883952546</v>
+        <v>44270.72760023148</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3615,12 +3718,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9181</t>
+          <t>0978</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Meryam - Forbach (57)</t>
+          <t>Marine - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3634,14 +3737,14 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>7.522406869920646e+17</v>
+        <v>8.210721890800763e+17</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>44296.53377712963</v>
+        <v>44270.72867565972</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>&lt;@!752240686992064693&gt;</t>
+          <t>&lt;@!821072189080076328&gt;</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3651,12 +3754,12 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Meli melo</t>
+          <t>Marine du CJ de la Roche sur Yon</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Meryam - Forbach (57)</t>
+          <t>Marine - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="W24" t="b">
@@ -3675,7 +3778,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3695,6 +3798,11 @@
       <c r="AF24" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Club Jeunes de la Roche-sur-Yon</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3864,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>jean-marie</t>
+          <t>jean-marie SPDM (40)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3787,7 +3895,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>jean-marie</t>
+          <t>jean-marie SPDM (40)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -3827,6 +3935,11 @@
       <c r="AF25" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -3961,6 +4074,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4097,6 +4215,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -4233,6 +4356,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4361,6 +4489,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4497,6 +4630,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Orgeval</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4633,6 +4771,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chameyrat</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4769,6 +4912,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Sarreguemines</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4905,6 +5053,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -5037,6 +5190,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -5173,6 +5331,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -5305,6 +5468,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Briançon</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -5441,6 +5609,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5573,6 +5746,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5701,6 +5879,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5837,6 +6020,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Niort</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5973,6 +6161,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -6109,6 +6302,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Cholet</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -6241,6 +6439,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -6373,6 +6576,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -6501,6 +6709,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6633,6 +6846,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6769,6 +6987,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6909,6 +7132,11 @@
           <t>online</t>
         </is>
       </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -7045,6 +7273,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -7181,6 +7414,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -7313,6 +7551,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Laon</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -7445,6 +7688,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -7573,6 +7821,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -7632,7 +7885,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Cécile - Luynes (37)</t>
+          <t>Cécile - Encadrante_Luynes (37)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7668,7 +7921,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Cécile - Luynes (37)</t>
+          <t>Cécile - Encadrante_Luynes (37)</t>
         </is>
       </c>
       <c r="W54" t="b">
@@ -7707,6 +7960,11 @@
       <c r="AF54" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -7845,6 +8103,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7977,6 +8240,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Millau</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -8026,7 +8294,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -8086,7 +8354,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -8096,7 +8364,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC57" t="b">
@@ -8111,6 +8379,11 @@
       <c r="AF57" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
         </is>
       </c>
     </row>
@@ -8162,7 +8435,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -8222,7 +8495,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -8232,7 +8505,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC58" t="b">
@@ -8247,6 +8520,11 @@
       <c r="AF58" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -8385,6 +8663,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -8517,6 +8800,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vitré</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -8649,6 +8937,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -8777,6 +9070,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -8909,6 +9207,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Parres-aux-Tertres</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -8964,7 +9267,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>bouchon05</t>
+          <t>Ethan</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8985,7 +9288,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>&lt;@828151569811111957&gt;</t>
+          <t>&lt;@!828151569811111957&gt;</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -8998,7 +9301,11 @@
           <t>bouchon05</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
       <c r="W64" t="b">
         <v>0</v>
       </c>
@@ -9035,6 +9342,11 @@
       <c r="AF64" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -9165,6 +9477,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -9297,6 +9614,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -9378,7 +9700,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -9402,7 +9724,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -9412,7 +9734,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC67" t="b">
@@ -9427,6 +9749,11 @@
       <c r="AF67" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9805,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -9538,7 +9865,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -9548,7 +9875,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC68" t="b">
@@ -9563,6 +9890,11 @@
       <c r="AF68" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -9701,6 +10033,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Pornic</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -9786,7 +10123,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -9810,7 +10147,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -9820,7 +10157,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC70" t="b">
@@ -9835,6 +10172,11 @@
       <c r="AF70" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -9973,6 +10315,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Briançon</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -10105,6 +10452,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Puech de Barret - Le Garric</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -10237,6 +10589,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -10369,6 +10726,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -10501,6 +10863,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -10633,6 +11000,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Laon</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -10769,6 +11141,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -10901,6 +11278,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Millau</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -11033,6 +11415,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>Club Jeunes de la Roche-sur-Yon</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -11169,6 +11556,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Pornic</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -11305,6 +11697,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Cluses</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -11437,6 +11834,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -11565,6 +11967,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -11614,7 +12021,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -11674,7 +12081,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -11684,7 +12091,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC84" t="b">
@@ -11699,6 +12106,11 @@
       <c r="AF84" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -11837,6 +12249,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Plaisir</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -11969,6 +12386,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Thionville</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -12101,6 +12523,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -12233,6 +12660,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>Club Jeunes de la Roche-sur-Yon</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -12369,6 +12801,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Pornic</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -12501,6 +12938,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -12633,6 +13075,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Puech de Barret - Le Garric</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -12765,6 +13212,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Parres-aux-Tertres</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -12901,6 +13353,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -13037,6 +13494,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -13173,6 +13635,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -13305,6 +13772,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Cluses</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -13437,6 +13909,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -13573,6 +14050,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -13709,6 +14191,11 @@
           <t>offline</t>
         </is>
       </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Bordeaux</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -13845,6 +14332,11 @@
           <t>online</t>
         </is>
       </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -13856,14 +14348,10 @@
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>f71d3bb083ce0adc414c842e7926d839</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/806174108286451764/f71d3bb083ce0adc414c842e7926d839.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -13871,40 +14359,40 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I101" s="2" t="n">
-        <v>44229.61672923611</v>
+        <v>44311.69484662037</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>6300</t>
+          <t>7086</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Reale COUCHAUX</t>
+          <t>Meryam-Forbach(57)</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -13914,18 +14402,18 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>8.061741082864517e+17</v>
+        <v>8.359182220574066e+17</v>
       </c>
       <c r="R101" s="2" t="n">
-        <v>44229.61692548611</v>
+        <v>44311.70287578758</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>&lt;@806174108286451764&gt;</t>
+          <t>&lt;@835918222057406546&gt;</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -13935,7 +14423,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Reale COUCHAUX</t>
+          <t>Meryam-Forbach(57)</t>
         </is>
       </c>
       <c r="V101" t="inlineStr"/>
@@ -13950,17 +14438,17 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045936226205738 name='Siège de la SPA'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC101" t="b">
@@ -13968,13 +14456,18 @@
       </c>
       <c r="AD101" t="inlineStr">
         <is>
-          <t>Administrateurs</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
         </is>
       </c>
     </row>
@@ -13988,10 +14481,14 @@
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>f71d3bb083ce0adc414c842e7926d839</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/806174108286451764/f71d3bb083ce0adc414c842e7926d839.webp?size=1024</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -13999,25 +14496,25 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e91e63</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e91e63</t>
         </is>
       </c>
       <c r="I102" s="2" t="n">
-        <v>44261.32916168981</v>
+        <v>44229.61672923611</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -14027,12 +14524,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Sandrine - Rennes (35)</t>
+          <t>Reale COUCHAUX</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -14042,18 +14539,18 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>8.176663089964646e+17</v>
+        <v>8.061741082864517e+17</v>
       </c>
       <c r="R102" s="2" t="n">
-        <v>44303.4330171875</v>
+        <v>44229.61692548611</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>&lt;@!817666308996464640&gt;</t>
+          <t>&lt;@806174108286451764&gt;</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -14063,14 +14560,10 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Sandrine CJ Rennes</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>Sandrine - Rennes (35)</t>
-        </is>
-      </c>
+          <t>Reale COUCHAUX</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr"/>
       <c r="W102" t="b">
         <v>0</v>
       </c>
@@ -14087,7 +14580,7 @@
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045936226205738 name='Siège de la SPA'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
@@ -14100,13 +14593,18 @@
       </c>
       <c r="AD102" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Administrateurs</t>
         </is>
       </c>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14621,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -14131,25 +14629,25 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I103" s="2" t="n">
-        <v>44281.3347844213</v>
+        <v>44261.32916168981</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -14159,12 +14657,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>8474</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Patou - Pornic (44)</t>
+          <t>Sandrine - Rennes (35)</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -14178,14 +14676,14 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>8.249161039183872e+17</v>
+        <v>8.176663089964646e+17</v>
       </c>
       <c r="R103" s="2" t="n">
-        <v>44281.3375758912</v>
+        <v>44303.4330171875</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>&lt;@!824916103918387223&gt;</t>
+          <t>&lt;@!817666308996464640&gt;</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -14195,12 +14693,12 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Patou</t>
+          <t>Sandrine CJ Rennes</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Patou - Pornic (44)</t>
+          <t>Sandrine - Rennes (35)</t>
         </is>
       </c>
       <c r="W103" t="b">
@@ -14219,7 +14717,7 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046357241790498 name='Club Jeunes de Pornic'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
@@ -14232,13 +14730,18 @@
       </c>
       <c r="AD103" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
         </is>
       </c>
     </row>
@@ -14255,7 +14758,7 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -14263,25 +14766,25 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>#70c14a</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>#70c14a</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I104" s="2" t="n">
-        <v>44261.37843839121</v>
+        <v>44281.3347844213</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -14291,12 +14794,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>8474</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Jean - Vallérargues (30)</t>
+          <t>Patou - Pornic (44)</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -14306,18 +14809,18 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775617&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>8.176841662748426e+17</v>
+        <v>8.249161039183872e+17</v>
       </c>
       <c r="R104" s="2" t="n">
-        <v>44261.37866695602</v>
+        <v>44281.3375758912</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>&lt;@!817684166274842654&gt;</t>
+          <t>&lt;@!824916103918387223&gt;</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -14327,12 +14830,12 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Jean DUQUESNOIS</t>
+          <t>Patou</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Jean - Vallérargues (30)</t>
+          <t>Patou - Pornic (44)</t>
         </is>
       </c>
       <c r="W104" t="b">
@@ -14351,7 +14854,7 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046720276103169 name='Club Jeunes de Vallérargues'&gt;, &lt;Role id=819885446788153344 name='Responsables de refuge'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046357241790498 name='Club Jeunes de Pornic'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
@@ -14364,13 +14867,18 @@
       </c>
       <c r="AD104" t="inlineStr">
         <is>
-          <t>Responsables de refuge</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Pornic</t>
         </is>
       </c>
     </row>
@@ -14387,7 +14895,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -14395,25 +14903,25 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#70c14a</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#70c14a</t>
         </is>
       </c>
       <c r="I105" s="2" t="n">
-        <v>44272.5318927662</v>
+        <v>44261.37843839121</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -14423,12 +14931,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>0191</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Valérie - Poulainville (80)</t>
+          <t>Jean - Vallérargues (30)</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -14438,18 +14946,18 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=6546775617&gt;</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>8.217260428003901e+17</v>
+        <v>8.176841662748426e+17</v>
       </c>
       <c r="R105" s="2" t="n">
-        <v>44272.53237288194</v>
+        <v>44261.37866695602</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>&lt;@!821726042800390154&gt;</t>
+          <t>&lt;@!817684166274842654&gt;</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -14459,12 +14967,12 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Valérie CJ Poulainville</t>
+          <t>Jean DUQUESNOIS</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Valérie - Poulainville (80)</t>
+          <t>Jean - Vallérargues (30)</t>
         </is>
       </c>
       <c r="W105" t="b">
@@ -14483,7 +14991,7 @@
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046720276103169 name='Club Jeunes de Vallérargues'&gt;, &lt;Role id=819885446788153344 name='Responsables de refuge'&gt;]</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
@@ -14496,13 +15004,18 @@
       </c>
       <c r="AD105" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Responsables de refuge</t>
         </is>
       </c>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vallérargues</t>
         </is>
       </c>
     </row>
@@ -14519,7 +15032,7 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -14527,25 +15040,25 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I106" s="2" t="n">
-        <v>44149.81293336806</v>
+        <v>44272.5318927662</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -14555,12 +15068,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>0191</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Candice</t>
+          <t>Valérie - Poulainville (80)</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -14574,14 +15087,14 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>7.772541810349179e+17</v>
+        <v>8.217260428003901e+17</v>
       </c>
       <c r="R106" s="2" t="n">
-        <v>44265.78161284722</v>
+        <v>44272.53237288194</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>&lt;@777254181034917928&gt;</t>
+          <t>&lt;@!821726042800390154&gt;</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -14591,10 +15104,14 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Candice</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr"/>
+          <t>Valérie CJ Poulainville</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Valérie - Poulainville (80)</t>
+        </is>
+      </c>
       <c r="W106" t="b">
         <v>0</v>
       </c>
@@ -14611,7 +15128,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
@@ -14624,13 +15141,18 @@
       </c>
       <c r="AD106" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Poulainville</t>
         </is>
       </c>
     </row>
@@ -14647,7 +15169,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -14664,16 +15186,16 @@
         </is>
       </c>
       <c r="I107" s="2" t="n">
-        <v>44277.49384787037</v>
+        <v>44149.81293336806</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -14683,12 +15205,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>8874</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>Candice</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -14702,14 +15224,14 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>8.235241951197921e+17</v>
+        <v>7.772541810349179e+17</v>
       </c>
       <c r="R107" s="2" t="n">
-        <v>44277.54837400463</v>
+        <v>44265.78161284722</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>&lt;@823524195119792158&gt;</t>
+          <t>&lt;@777254181034917928&gt;</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -14719,7 +15241,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>Candice</t>
         </is>
       </c>
       <c r="V107" t="inlineStr"/>
@@ -14759,6 +15281,11 @@
       <c r="AF107" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -14772,14 +15299,10 @@
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>b4058052db07f892f1e225e7f9971a86</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/554701108786888754/b4058052db07f892f1e225e7f9971a86.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -14787,40 +15310,40 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I108" s="2" t="n">
-        <v>43535.68345119213</v>
+        <v>44277.49384787037</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>9391</t>
+          <t>8874</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Ines - Yvré l'Évêque (72)</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -14834,14 +15357,14 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>5.547011087868888e+17</v>
+        <v>8.235241951197921e+17</v>
       </c>
       <c r="R108" s="2" t="n">
-        <v>44281.91372943287</v>
+        <v>44277.54837400463</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>&lt;@!554701108786888754&gt;</t>
+          <t>&lt;@823524195119792158&gt;</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -14851,14 +15374,10 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>ness</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>Ines - Yvré l'Évêque (72)</t>
-        </is>
-      </c>
+          <t>PPM</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr"/>
       <c r="W108" t="b">
         <v>0</v>
       </c>
@@ -14870,17 +15389,17 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC108" t="b">
@@ -14888,13 +15407,18 @@
       </c>
       <c r="AD108" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -14904,18 +15428,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>(&lt;CustomActivity name='~Talking to the moon~' emoji=&lt;PartialEmoji animated=False name='🌕' id=None&gt;&gt;, &lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Grand Theft Auto V' url=None details=None application_id=356876176465199104 session_id=None emoji=None&gt;)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>🌕 ~Talking to the moon~</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6fb2f8b0d4cc598a15b7334c14321b52</t>
+          <t>791484e8252333978038da9a70c756b6</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/819231783635648543/6fb2f8b0d4cc598a15b7334c14321b52.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/554701108786888754/791484e8252333978038da9a70c756b6.webp?size=1024</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -14923,40 +15451,40 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I109" s="2" t="n">
-        <v>44265.64904871528</v>
+        <v>43535.68345119213</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>9391</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Imogen - Briançon (05)</t>
+          <t>Ines - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -14970,14 +15498,14 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>8.192317836356485e+17</v>
+        <v>5.547011087868888e+17</v>
       </c>
       <c r="R109" s="2" t="n">
-        <v>44265.65147925926</v>
+        <v>44281.91372943287</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>&lt;@!819231783635648543&gt;</t>
+          <t>&lt;@!554701108786888754&gt;</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -14987,12 +15515,12 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>imogen CJ de briancon</t>
+          <t>ness</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Imogen - Briançon (05)</t>
+          <t>Ines - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="W109" t="b">
@@ -15006,17 +15534,17 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046807794319440 name='Club Jeunes de Briançon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC109" t="b">
@@ -15024,13 +15552,18 @@
       </c>
       <c r="AD109" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
         </is>
       </c>
     </row>
@@ -15046,12 +15579,12 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5c6f5da776b551d78970947dcc1bfaca</t>
+          <t>6fb2f8b0d4cc598a15b7334c14321b52</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/743880812981911563/5c6f5da776b551d78970947dcc1bfaca.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/819231783635648543/6fb2f8b0d4cc598a15b7334c14321b52.webp?size=1024</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -15059,25 +15592,25 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I110" s="2" t="n">
-        <v>44057.71998208333</v>
+        <v>44265.64904871528</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -15087,12 +15620,12 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Lilie - Saint-Omer (62)</t>
+          <t>Imogen - Briançon (05)</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -15106,14 +15639,14 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>7.438808129819116e+17</v>
+        <v>8.192317836356485e+17</v>
       </c>
       <c r="R110" s="2" t="n">
-        <v>44269.71359259259</v>
+        <v>44265.65147925926</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>&lt;@!743880812981911563&gt;</t>
+          <t>&lt;@!819231783635648543&gt;</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -15123,12 +15656,12 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>lilie CJ Saint omer</t>
+          <t>imogen CJ de briancon</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Lilie - Saint-Omer (62)</t>
+          <t>Imogen - Briançon (05)</t>
         </is>
       </c>
       <c r="W110" t="b">
@@ -15147,7 +15680,7 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046807794319440 name='Club Jeunes de Briançon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
@@ -15160,13 +15693,18 @@
       </c>
       <c r="AD110" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Briançon</t>
         </is>
       </c>
     </row>
@@ -15182,12 +15720,12 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>c6d40d06221ada67aaf7c122d08eda2e</t>
+          <t>5c6f5da776b551d78970947dcc1bfaca</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/688447791437054061/c6d40d06221ada67aaf7c122d08eda2e.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/743880812981911563/5c6f5da776b551d78970947dcc1bfaca.webp?size=1024</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -15204,16 +15742,16 @@
         </is>
       </c>
       <c r="I111" s="2" t="n">
-        <v>43904.75398402778</v>
+        <v>44057.71998208333</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -15223,12 +15761,12 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Manon - SPDM (40)</t>
+          <t>Lilie - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -15242,14 +15780,14 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>6.884477914370541e+17</v>
+        <v>7.438808129819116e+17</v>
       </c>
       <c r="R111" s="2" t="n">
-        <v>44286.66035077546</v>
+        <v>44269.71359259259</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>&lt;@!688447791437054061&gt;</t>
+          <t>&lt;@!743880812981911563&gt;</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -15259,12 +15797,12 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Manon Ricaud</t>
+          <t>lilie CJ Saint omer</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Manon - SPDM (40)</t>
+          <t>Lilie - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="W111" t="b">
@@ -15283,7 +15821,7 @@
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
@@ -15303,6 +15841,11 @@
       <c r="AF111" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
         </is>
       </c>
     </row>
@@ -15318,12 +15861,12 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>d539b063d2f85bd04b7449c733628510</t>
+          <t>c6d40d06221ada67aaf7c122d08eda2e</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/649282683255521305/d539b063d2f85bd04b7449c733628510.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/688447791437054061/c6d40d06221ada67aaf7c122d08eda2e.webp?size=1024</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -15340,16 +15883,16 @@
         </is>
       </c>
       <c r="I112" s="2" t="n">
-        <v>43796.6788747338</v>
+        <v>43904.75398402778</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -15359,12 +15902,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Anaïs - SPDM (40)</t>
+          <t>Manon - SPDM (40)</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -15378,14 +15921,14 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>6.492826832555213e+17</v>
+        <v>6.884477914370541e+17</v>
       </c>
       <c r="R112" s="2" t="n">
-        <v>44244.51630609954</v>
+        <v>44286.66035077546</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>&lt;@!649282683255521305&gt;</t>
+          <t>&lt;@!688447791437054061&gt;</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -15395,12 +15938,12 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Anaïs CJ de Saint Pierre du Mont</t>
+          <t>Manon Ricaud</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Anaïs - SPDM (40)</t>
+          <t>Manon - SPDM (40)</t>
         </is>
       </c>
       <c r="W112" t="b">
@@ -15439,6 +15982,11 @@
       <c r="AF112" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -15452,10 +16000,14 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>d539b063d2f85bd04b7449c733628510</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/avatars/649282683255521305/d539b063d2f85bd04b7449c733628510.webp?size=1024</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -15463,25 +16015,25 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I113" s="2" t="n">
-        <v>44284.82584203704</v>
+        <v>43796.6788747338</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -15491,12 +16043,12 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Klervia</t>
+          <t>Anaïs - SPDM (40)</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -15510,14 +16062,14 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>8.261812208367043e+17</v>
+        <v>6.492826832555213e+17</v>
       </c>
       <c r="R113" s="2" t="n">
-        <v>44284.82640791667</v>
+        <v>44244.51630609954</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>&lt;@826181220836704286&gt;</t>
+          <t>&lt;@!649282683255521305&gt;</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -15527,10 +16079,14 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Klervia</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr"/>
+          <t>Anaïs CJ de Saint Pierre du Mont</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Anaïs - SPDM (40)</t>
+        </is>
+      </c>
       <c r="W113" t="b">
         <v>0</v>
       </c>
@@ -15547,7 +16103,7 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
@@ -15560,13 +16116,18 @@
       </c>
       <c r="AD113" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -15580,14 +16141,10 @@
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>c3fd22d647a78b11c110552daa2e8e2e</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/811873653066301466/c3fd22d647a78b11c110552daa2e8e2e.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -15595,25 +16152,25 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I114" s="2" t="n">
-        <v>44245.34447655093</v>
+        <v>44284.82584203704</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -15623,12 +16180,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Margau - Vaux-le-Pénil (77)</t>
+          <t>Klervia</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -15642,14 +16199,14 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>8.118736530663014e+17</v>
+        <v>8.261812208367043e+17</v>
       </c>
       <c r="R114" s="2" t="n">
-        <v>44245.34526650463</v>
+        <v>44284.82640791667</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>&lt;@!811873653066301466&gt;</t>
+          <t>&lt;@826181220836704286&gt;</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -15659,14 +16216,10 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Margau CJ de Vaux-le-Pénil</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>Margau - Vaux-le-Pénil (77)</t>
-        </is>
-      </c>
+          <t>Klervia</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr"/>
       <c r="W114" t="b">
         <v>0</v>
       </c>
@@ -15683,7 +16236,7 @@
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
@@ -15696,13 +16249,18 @@
       </c>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -15712,22 +16270,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(&lt;CustomActivity name='Bonjour' emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Bonjour</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7a01846060522a68d85093a2401e5dba</t>
+          <t>c3fd22d647a78b11c110552daa2e8e2e</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/803322855290437703/7a01846060522a68d85093a2401e5dba.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/811873653066301466/c3fd22d647a78b11c110552daa2e8e2e.webp?size=1024</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -15744,16 +16298,16 @@
         </is>
       </c>
       <c r="I115" s="2" t="n">
-        <v>44221.74876988426</v>
+        <v>44245.34447655093</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -15763,12 +16317,12 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>7758</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Ewen - Châteaubourg (35)</t>
+          <t>Margau - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -15782,29 +16336,29 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>8.033228552904378e+17</v>
+        <v>8.118736530663014e+17</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>44245.52085854167</v>
+        <v>44245.34526650463</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>&lt;@!803322855290437703&gt;</t>
+          <t>&lt;@!811873653066301466&gt;</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Ewen du CJ de Chateaubourg</t>
+          <t>Margau CJ de Vaux-le-Pénil</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Ewen - Châteaubourg (35)</t>
+          <t>Margau - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="W115" t="b">
@@ -15818,17 +16372,17 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC115" t="b">
@@ -15843,6 +16397,11 @@
       <c r="AF115" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
         </is>
       </c>
     </row>
@@ -15858,12 +16417,12 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0c5f6b00370902efcfd7cc92fbfe5613</t>
+          <t>7a01846060522a68d85093a2401e5dba</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/818072289346191395/0c5f6b00370902efcfd7cc92fbfe5613.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/803322855290437703/7a01846060522a68d85093a2401e5dba.webp?size=1024</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -15871,25 +16430,25 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I116" s="2" t="n">
-        <v>44262.44945402778</v>
+        <v>44221.74876988426</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -15899,12 +16458,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>7758</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Didier - Cholet (49)</t>
+          <t>Ewen - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -15918,14 +16477,14 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>8.180722893461914e+17</v>
+        <v>8.033228552904378e+17</v>
       </c>
       <c r="R116" s="2" t="n">
-        <v>44262.45222194445</v>
+        <v>44245.52085854167</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>&lt;@!818072289346191395&gt;</t>
+          <t>&lt;@!803322855290437703&gt;</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -15935,12 +16494,12 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Trinity49</t>
+          <t>Ewen du CJ de Chateaubourg</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Didier - Cholet (49)</t>
+          <t>Ewen - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="W116" t="b">
@@ -15959,7 +16518,7 @@
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046315311595540 name='Club Jeunes de Cholet'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
@@ -15972,13 +16531,18 @@
       </c>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -15994,12 +16558,12 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>30fcfa7e5ca487c3a7ca3ce3c450857c</t>
+          <t>0c5f6b00370902efcfd7cc92fbfe5613</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/818553720135614496/30fcfa7e5ca487c3a7ca3ce3c450857c.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/818072289346191395/0c5f6b00370902efcfd7cc92fbfe5613.webp?size=1024</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -16007,16 +16571,16 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I117" s="2" t="n">
-        <v>44263.77794991898</v>
+        <v>44262.44945402778</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -16035,12 +16599,12 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>9861</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Charlotte - Le Garric (81)</t>
+          <t>Didier - Cholet (49)</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -16054,14 +16618,14 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>8.185537201356145e+17</v>
+        <v>8.180722893461914e+17</v>
       </c>
       <c r="R117" s="2" t="n">
-        <v>44263.81535306713</v>
+        <v>44262.45222194445</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>&lt;@!818553720135614496&gt;</t>
+          <t>&lt;@!818072289346191395&gt;</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -16071,12 +16635,12 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>Charlotte du CJ de le Garric</t>
+          <t>Trinity49</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Charlotte - Le Garric (81)</t>
+          <t>Didier - Cholet (49)</t>
         </is>
       </c>
       <c r="W117" t="b">
@@ -16095,7 +16659,7 @@
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046315311595540 name='Club Jeunes de Cholet'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
@@ -16108,13 +16672,18 @@
       </c>
       <c r="AD117" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Cholet</t>
         </is>
       </c>
     </row>
@@ -16128,10 +16697,14 @@
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>30fcfa7e5ca487c3a7ca3ce3c450857c</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/818553720135614496/30fcfa7e5ca487c3a7ca3ce3c450857c.webp?size=1024</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -16139,25 +16712,25 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I118" s="2" t="n">
-        <v>44244.74588240741</v>
+        <v>44263.77794991898</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -16167,12 +16740,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>9861</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Céline - SPDM (40)</t>
+          <t>Charlotte - Le Garric (81)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -16186,14 +16759,14 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>8.116567298126643e+17</v>
+        <v>8.185537201356145e+17</v>
       </c>
       <c r="R118" s="2" t="n">
-        <v>44244.74701711805</v>
+        <v>44263.81535306713</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>&lt;@!811656729812664370&gt;</t>
+          <t>&lt;@!818553720135614496&gt;</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -16203,12 +16776,12 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Hugo CJ Saint Pierre du Mont</t>
+          <t>Charlotte du CJ de le Garric</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Céline - SPDM (40)</t>
+          <t>Charlotte - Le Garric (81)</t>
         </is>
       </c>
       <c r="W118" t="b">
@@ -16227,7 +16800,7 @@
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
@@ -16240,13 +16813,18 @@
       </c>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Puech de Barret - Le Garric</t>
         </is>
       </c>
     </row>
@@ -16260,14 +16838,10 @@
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>15125e433fb9e31c3af23a8e5ae59a76</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/811723077301174363/15125e433fb9e31c3af23a8e5ae59a76.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -16275,25 +16849,25 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I119" s="2" t="n">
-        <v>44244.92896659722</v>
+        <v>44244.74588240741</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -16303,12 +16877,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Marine - Châteaubourg (35)</t>
+          <t>Céline - SPDM (40)</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -16322,14 +16896,14 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>8.117230773011744e+17</v>
+        <v>8.116567298126643e+17</v>
       </c>
       <c r="R119" s="2" t="n">
-        <v>44244.92984567129</v>
+        <v>44244.74701711805</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>&lt;@!811723077301174363&gt;</t>
+          <t>&lt;@!811656729812664370&gt;</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -16339,12 +16913,12 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Marine CJ de Chateaubourg</t>
+          <t>Hugo CJ Saint Pierre du Mont</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Marine - Châteaubourg (35)</t>
+          <t>Céline - SPDM (40)</t>
         </is>
       </c>
       <c r="W119" t="b">
@@ -16363,7 +16937,7 @@
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
@@ -16376,13 +16950,18 @@
       </c>
       <c r="AD119" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -16396,10 +16975,14 @@
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>15125e433fb9e31c3af23a8e5ae59a76</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/avatars/811723077301174363/15125e433fb9e31c3af23a8e5ae59a76.webp?size=1024</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -16416,16 +16999,16 @@
         </is>
       </c>
       <c r="I120" s="2" t="n">
-        <v>43983.57258805555</v>
+        <v>44244.92896659722</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -16435,12 +17018,12 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>5414</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Manon - Orgeval (78)</t>
+          <t>Marine - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -16454,14 +17037,14 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>7.170106971201208e+17</v>
+        <v>8.117230773011744e+17</v>
       </c>
       <c r="R120" s="2" t="n">
-        <v>44246.52039186343</v>
+        <v>44244.92984567129</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>&lt;@!717010697120120862&gt;</t>
+          <t>&lt;@!811723077301174363&gt;</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -16471,12 +17054,12 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Manon CJ orgeval</t>
+          <t>Marine CJ de Chateaubourg</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Manon - Orgeval (78)</t>
+          <t>Marine - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="W120" t="b">
@@ -16495,7 +17078,7 @@
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045727429296128 name="Club Jeunes d'Orgeval"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
@@ -16515,6 +17098,11 @@
       <c r="AF120" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -16531,7 +17119,7 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -16539,25 +17127,25 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I121" s="2" t="n">
-        <v>44260.78202319444</v>
+        <v>43983.57258805555</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -16567,12 +17155,12 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>5414</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Maria - La Roche-sur-Yon (85)</t>
+          <t>Manon - Orgeval (78)</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -16586,14 +17174,14 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>8.174680326450708e+17</v>
+        <v>7.170106971201208e+17</v>
       </c>
       <c r="R121" s="2" t="n">
-        <v>44260.84910686342</v>
+        <v>44246.52039186343</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>&lt;@!817468032645070909&gt;</t>
+          <t>&lt;@!717010697120120862&gt;</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -16603,12 +17191,12 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>MariaF</t>
+          <t>Manon CJ orgeval</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Maria - La Roche-sur-Yon (85)</t>
+          <t>Manon - Orgeval (78)</t>
         </is>
       </c>
       <c r="W121" t="b">
@@ -16627,7 +17215,7 @@
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045727429296128 name="Club Jeunes d'Orgeval"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
@@ -16640,13 +17228,18 @@
       </c>
       <c r="AD121" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Orgeval</t>
         </is>
       </c>
     </row>
@@ -16663,7 +17256,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -16671,25 +17264,25 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I122" s="2" t="n">
-        <v>44269.66674922454</v>
+        <v>44260.78202319444</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -16699,12 +17292,12 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>8670</t>
+          <t>9993</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>zines</t>
+          <t>Maria - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -16718,14 +17311,14 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>8.206877495469015e+17</v>
+        <v>8.174680326450708e+17</v>
       </c>
       <c r="R122" s="2" t="n">
-        <v>44281.90999769676</v>
+        <v>44260.84910686342</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>&lt;@820687749546901539&gt;</t>
+          <t>&lt;@!817468032645070909&gt;</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -16735,10 +17328,14 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>zines</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr"/>
+          <t>MariaF</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Maria - La Roche-sur-Yon (85)</t>
+        </is>
+      </c>
       <c r="W122" t="b">
         <v>0</v>
       </c>
@@ -16755,7 +17352,7 @@
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr">
@@ -16768,13 +17365,18 @@
       </c>
       <c r="AD122" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>Club Jeunes de la Roche-sur-Yon</t>
         </is>
       </c>
     </row>
@@ -16788,14 +17390,10 @@
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>d37e9a937adf3797df492262527f8d60</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/387907535019048961/d37e9a937adf3797df492262527f8d60.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -16803,25 +17401,25 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I123" s="2" t="n">
-        <v>43075.42087178241</v>
+        <v>44269.66674922454</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -16831,12 +17429,12 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>8670</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Pauline - Chateaubourg (35)</t>
+          <t>zines</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -16850,14 +17448,14 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>3.87907535019049e+17</v>
+        <v>8.206877495469015e+17</v>
       </c>
       <c r="R123" s="2" t="n">
-        <v>44284.77095934028</v>
+        <v>44281.90999769676</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>&lt;@!387907535019048961&gt;</t>
+          <t>&lt;@820687749546901539&gt;</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -16867,14 +17465,10 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Pauline</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>Pauline - Chateaubourg (35)</t>
-        </is>
-      </c>
+          <t>zines</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr"/>
       <c r="W123" t="b">
         <v>0</v>
       </c>
@@ -16891,7 +17485,7 @@
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
@@ -16904,13 +17498,18 @@
       </c>
       <c r="AD123" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -16926,12 +17525,12 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>917995aa2811ac9649b4be863d25b14a</t>
+          <t>d37e9a937adf3797df492262527f8d60</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/783025428431634463/917995aa2811ac9649b4be863d25b14a.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/387907535019048961/d37e9a937adf3797df492262527f8d60.webp?size=1024</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -16939,25 +17538,25 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I124" s="2" t="n">
-        <v>44165.73854221065</v>
+        <v>43075.42087178241</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -16967,12 +17566,12 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>0184</t>
+          <t>8887</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Lilou - Saint-Omer (62)</t>
+          <t>Pauline - Chateaubourg (35)</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -16986,14 +17585,14 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>7.830254284316344e+17</v>
+        <v>3.87907535019049e+17</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>44245.24075265046</v>
+        <v>44284.77095934028</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>&lt;@!783025428431634463&gt;</t>
+          <t>&lt;@!387907535019048961&gt;</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -17003,12 +17602,12 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>lilou</t>
+          <t>Pauline</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Lilou - Saint-Omer (62)</t>
+          <t>Pauline - Chateaubourg (35)</t>
         </is>
       </c>
       <c r="W124" t="b">
@@ -17027,7 +17626,7 @@
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
@@ -17040,13 +17639,18 @@
       </c>
       <c r="AD124" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -17060,10 +17664,14 @@
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>917995aa2811ac9649b4be863d25b14a</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/avatars/783025428431634463/917995aa2811ac9649b4be863d25b14a.webp?size=1024</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -17080,16 +17688,16 @@
         </is>
       </c>
       <c r="I125" s="2" t="n">
-        <v>44253.53936686343</v>
+        <v>44165.73854221065</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -17099,12 +17707,12 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0184</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Manon - La Roche-sur-Yon (85)</t>
+          <t>Lilou - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -17118,14 +17726,14 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>8.148433818761298e+17</v>
+        <v>7.830254284316344e+17</v>
       </c>
       <c r="R125" s="2" t="n">
-        <v>44257.38942131944</v>
+        <v>44245.24075265046</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>&lt;@!814843381876129834&gt;</t>
+          <t>&lt;@!783025428431634463&gt;</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -17135,12 +17743,12 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Manon CJ de la Roche sur Yon</t>
+          <t>lilou</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Manon - La Roche-sur-Yon (85)</t>
+          <t>Lilou - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="W125" t="b">
@@ -17159,7 +17767,7 @@
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
@@ -17179,6 +17787,11 @@
       <c r="AF125" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint-Omer</t>
         </is>
       </c>
     </row>
@@ -17195,7 +17808,7 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -17212,16 +17825,16 @@
         </is>
       </c>
       <c r="I126" s="2" t="n">
-        <v>44246.62527730324</v>
+        <v>44253.53936686343</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -17231,12 +17844,12 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Luna - Millau (12)</t>
+          <t>Manon - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -17250,14 +17863,14 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>8.12337799717585e+17</v>
+        <v>8.148433818761298e+17</v>
       </c>
       <c r="R126" s="2" t="n">
-        <v>44246.62789802083</v>
+        <v>44257.38942131944</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>&lt;@!812337799717584961&gt;</t>
+          <t>&lt;@!814843381876129834&gt;</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -17267,12 +17880,12 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Luna CJ de Millau</t>
+          <t>Manon CJ de la Roche sur Yon</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>Luna - Millau (12)</t>
+          <t>Manon - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="W126" t="b">
@@ -17291,7 +17904,7 @@
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046658808578118 name='Club Jeunes de Millau'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
@@ -17311,6 +17924,11 @@
       <c r="AF126" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>Club Jeunes de la Roche-sur-Yon</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17945,7 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -17344,16 +17962,16 @@
         </is>
       </c>
       <c r="I127" s="2" t="n">
-        <v>44260.72381994213</v>
+        <v>44246.62527730324</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -17363,12 +17981,12 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Aurore - Vaux-le-Pénil (77)</t>
+          <t>Luna - Millau (12)</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -17382,14 +18000,14 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>8.174469404925624e+17</v>
+        <v>8.12337799717585e+17</v>
       </c>
       <c r="R127" s="2" t="n">
-        <v>44260.72721981481</v>
+        <v>44246.62789802083</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>&lt;@!817446940492562443&gt;</t>
+          <t>&lt;@!812337799717584961&gt;</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
@@ -17399,12 +18017,12 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Aurore CJ Vaulx le Penil</t>
+          <t>Luna CJ de Millau</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>Aurore - Vaux-le-Pénil (77)</t>
+          <t>Luna - Millau (12)</t>
         </is>
       </c>
       <c r="W127" t="b">
@@ -17423,7 +18041,7 @@
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046658808578118 name='Club Jeunes de Millau'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr">
@@ -17443,6 +18061,11 @@
       <c r="AF127" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Millau</t>
         </is>
       </c>
     </row>
@@ -17467,16 +18090,16 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I128" s="2" t="n">
-        <v>44268.84372393518</v>
+        <v>44260.72381994213</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -17495,12 +18118,12 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Elina</t>
+          <t>Aurore - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -17514,14 +18137,14 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>8.20389495169876e+17</v>
+        <v>8.174469404925624e+17</v>
       </c>
       <c r="R128" s="2" t="n">
-        <v>44268.84404700231</v>
+        <v>44260.72721981481</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>&lt;@820389495169876028&gt;</t>
+          <t>&lt;@!817446940492562443&gt;</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -17531,10 +18154,14 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Elina</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr"/>
+          <t>Aurore CJ Vaulx le Penil</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>Aurore - Vaux-le-Pénil (77)</t>
+        </is>
+      </c>
       <c r="W128" t="b">
         <v>0</v>
       </c>
@@ -17551,7 +18178,7 @@
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
@@ -17564,13 +18191,18 @@
       </c>
       <c r="AD128" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
         </is>
       </c>
     </row>
@@ -17587,7 +18219,7 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -17595,25 +18227,25 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I129" s="2" t="n">
-        <v>44279.4610219676</v>
+        <v>44268.84372393518</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -17623,12 +18255,12 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Chloé - Luynes (37)</t>
+          <t>Elina</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -17642,14 +18274,14 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>8.242370751412306e+17</v>
+        <v>8.20389495169876e+17</v>
       </c>
       <c r="R129" s="2" t="n">
-        <v>44279.46152634259</v>
+        <v>44268.84404700231</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>&lt;@!824237075141230593&gt;</t>
+          <t>&lt;@820389495169876028&gt;</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -17659,14 +18291,10 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Chloé CJ Luynes</t>
-        </is>
-      </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>Chloé - Luynes (37)</t>
-        </is>
-      </c>
+          <t>Elina</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr"/>
       <c r="W129" t="b">
         <v>0</v>
       </c>
@@ -17683,7 +18311,7 @@
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr">
@@ -17696,13 +18324,18 @@
       </c>
       <c r="AD129" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -17716,14 +18349,10 @@
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>5253cdee182ccccb13aab66e8ff4f847</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/779255638911221790/5253cdee182ccccb13aab66e8ff4f847.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -17731,16 +18360,16 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I130" s="2" t="n">
-        <v>44155.33590493056</v>
+        <v>44279.4610219676</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -17759,12 +18388,12 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Clémentine - SPDM (40)</t>
+          <t>Chloé - Luynes (37)</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -17778,14 +18407,14 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>7.792556389112218e+17</v>
+        <v>8.242370751412306e+17</v>
       </c>
       <c r="R130" s="2" t="n">
-        <v>44260.74883314815</v>
+        <v>44279.46152634259</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>&lt;@!779255638911221790&gt;</t>
+          <t>&lt;@!824237075141230593&gt;</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -17795,12 +18424,12 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>Clémentine CJ SaintPierreDuMont</t>
+          <t>Chloé CJ Luynes</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Clémentine - SPDM (40)</t>
+          <t>Chloé - Luynes (37)</t>
         </is>
       </c>
       <c r="W130" t="b">
@@ -17819,7 +18448,7 @@
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
@@ -17832,13 +18461,18 @@
       </c>
       <c r="AD130" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -17854,12 +18488,12 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>c37e45845b813edc5b6e9e39eede863a</t>
+          <t>5253cdee182ccccb13aab66e8ff4f847</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/809826133755428886/c37e45845b813edc5b6e9e39eede863a.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/779255638911221790/5253cdee182ccccb13aab66e8ff4f847.webp?size=1024</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -17876,7 +18510,7 @@
         </is>
       </c>
       <c r="I131" s="2" t="n">
-        <v>44239.6943996412</v>
+        <v>44155.33590493056</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -17895,12 +18529,12 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Élodie - Châteaubourg (35)</t>
+          <t>Clémentine - SPDM (40)</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -17914,14 +18548,14 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>8.098261337554289e+17</v>
+        <v>7.792556389112218e+17</v>
       </c>
       <c r="R131" s="2" t="n">
-        <v>44284.74919269676</v>
+        <v>44260.74883314815</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>&lt;@!809826133755428886&gt;</t>
+          <t>&lt;@!779255638911221790&gt;</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -17931,12 +18565,12 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Ragnarock</t>
+          <t>Clémentine CJ SaintPierreDuMont</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Élodie - Châteaubourg (35)</t>
+          <t>Clémentine - SPDM (40)</t>
         </is>
       </c>
       <c r="W131" t="b">
@@ -17955,7 +18589,7 @@
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
@@ -17975,6 +18609,11 @@
       <c r="AF131" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Saint Pierre du Mont</t>
         </is>
       </c>
     </row>
@@ -17988,38 +18627,42 @@
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>c37e45845b813edc5b6e9e39eede863a</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
+          <t>https://cdn.discordapp.com/avatars/809826133755428886/c37e45845b813edc5b6e9e39eede863a.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>#31c3d9</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>#31c3d9</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>44239.6943996412</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
           <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>#9b59b6</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>#9b59b6</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="n">
-        <v>44261.33389589121</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
-        </is>
-      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>offline</t>
@@ -18027,12 +18670,12 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Audrey - Le Garric (81)</t>
+          <t>Élodie - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -18046,14 +18689,14 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>8.176680246133391e+17</v>
+        <v>8.098261337554289e+17</v>
       </c>
       <c r="R132" s="2" t="n">
-        <v>44261.33572283565</v>
+        <v>44284.74919269676</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>&lt;@!817668024613339177&gt;</t>
+          <t>&lt;@!809826133755428886&gt;</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
@@ -18063,12 +18706,12 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Audrey (endadrante 81)</t>
+          <t>Ragnarock</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Audrey - Le Garric (81)</t>
+          <t>Élodie - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="W132" t="b">
@@ -18087,7 +18730,7 @@
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
@@ -18100,13 +18743,18 @@
       </c>
       <c r="AD132" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
         </is>
       </c>
     </row>
@@ -18120,14 +18768,10 @@
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>9b3c92412ab370df209e0c877adfefec</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/526740097698365440/9b3c92412ab370df209e0c877adfefec.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -18135,25 +18779,25 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I133" s="2" t="n">
-        <v>43458.52575982639</v>
+        <v>44261.33389589121</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -18163,12 +18807,12 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Thomas - Vaux-le-Pénil (77)</t>
+          <t>Audrey - Le Garric (81)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -18182,14 +18826,14 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>5.267400976983654e+17</v>
+        <v>8.176680246133391e+17</v>
       </c>
       <c r="R133" s="2" t="n">
-        <v>44252.84185878472</v>
+        <v>44261.33572283565</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>&lt;@!526740097698365440&gt;</t>
+          <t>&lt;@!817668024613339177&gt;</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -18199,12 +18843,12 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Lgjump</t>
+          <t>Audrey (endadrante 81)</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Thomas - Vaux-le-Pénil (77)</t>
+          <t>Audrey - Le Garric (81)</t>
         </is>
       </c>
       <c r="W133" t="b">
@@ -18223,7 +18867,7 @@
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
@@ -18236,13 +18880,18 @@
       </c>
       <c r="AD133" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Puech de Barret - Le Garric</t>
         </is>
       </c>
     </row>
@@ -18256,10 +18905,14 @@
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>9b3c92412ab370df209e0c877adfefec</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/526740097698365440/9b3c92412ab370df209e0c877adfefec.webp?size=1024</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -18276,16 +18929,16 @@
         </is>
       </c>
       <c r="I134" s="2" t="n">
-        <v>44247.64193319444</v>
+        <v>43458.52575982639</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -18295,12 +18948,12 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Charlotte - Yvré l'Évêque (72)</t>
+          <t>Thomas - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -18314,14 +18967,14 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>8.127062234761789e+17</v>
+        <v>5.267400976983654e+17</v>
       </c>
       <c r="R134" s="2" t="n">
-        <v>44247.64290869213</v>
+        <v>44252.84185878472</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>&lt;@!812706223476178956&gt;</t>
+          <t>&lt;@!526740097698365440&gt;</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -18331,12 +18984,12 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>chachou</t>
+          <t>Lgjump</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>Charlotte - Yvré l'Évêque (72)</t>
+          <t>Thomas - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="W134" t="b">
@@ -18355,7 +19008,7 @@
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
@@ -18375,6 +19028,11 @@
       <c r="AF134" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
         </is>
       </c>
     </row>
@@ -18384,47 +19042,40 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>(&lt;Game name='=help: quizbot.xyz'&gt;,)</t>
-        </is>
-      </c>
-      <c r="C135">
-        <f>help: quizbot.xyz</f>
-        <v/>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2887a7f4c0da56352aff000c80e80062</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/558996910581612545/2887a7f4c0da56352aff000c80e80062.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I135" s="2" t="n">
-        <v>43547.53760582176</v>
+        <v>44247.64193319444</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -18434,12 +19085,12 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0134</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>🐶Togo</t>
+          <t>Charlotte - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -18449,18 +19100,18 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>5.589969105816125e+17</v>
+        <v>8.127062234761789e+17</v>
       </c>
       <c r="R135" s="2" t="n">
-        <v>44272.57799109954</v>
+        <v>44247.64290869213</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>&lt;@!558996910581612545&gt;</t>
+          <t>&lt;@!812706223476178956&gt;</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
@@ -18470,12 +19121,12 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>QuizBot</t>
+          <t>chachou</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>🐶Togo</t>
+          <t>Charlotte - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="W135" t="b">
@@ -18484,22 +19135,22 @@
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=65536&gt;</t>
+          <t>&lt;PublicUserFlags value=0&gt;</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=821742748054716447 name='QuizBot'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC135" t="b">
@@ -18507,13 +19158,18 @@
       </c>
       <c r="AD135" t="inlineStr">
         <is>
-          <t>Modérateurs</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Yvré-l'Evêque</t>
         </is>
       </c>
     </row>
@@ -18523,40 +19179,47 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+          <t>(&lt;Game name='=help: quizbot.xyz'&gt;,)</t>
+        </is>
+      </c>
+      <c r="C136">
+        <f>help: quizbot.xyz</f>
+        <v/>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2887a7f4c0da56352aff000c80e80062</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/avatars/558996910581612545/2887a7f4c0da56352aff000c80e80062.webp?size=1024</t>
         </is>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="I136" s="2" t="n">
-        <v>43910.46423488426</v>
+        <v>43547.53760582176</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -18566,12 +19229,12 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>7916</t>
+          <t>0134</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>maëlia-j</t>
+          <t>🐶Togo</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -18581,18 +19244,18 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>6.905171170568438e+17</v>
+        <v>5.589969105816125e+17</v>
       </c>
       <c r="R136" s="2" t="n">
-        <v>44265.84598695602</v>
+        <v>44272.57799109954</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>&lt;@690517117056843836&gt;</t>
+          <t>&lt;@!558996910581612545&gt;</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -18602,32 +19265,36 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>maëlia-j</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr"/>
+          <t>QuizBot</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>🐶Togo</t>
+        </is>
+      </c>
       <c r="W136" t="b">
         <v>0</v>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=0&gt;</t>
+          <t>&lt;PublicUserFlags value=65536&gt;</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=821742748054716447 name='QuizBot'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC136" t="b">
@@ -18635,13 +19302,18 @@
       </c>
       <c r="AD136" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Modérateurs</t>
         </is>
       </c>
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -18658,7 +19330,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -18666,40 +19338,40 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I137" s="2" t="n">
-        <v>44260.87580780093</v>
+        <v>43910.46423488426</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>0867</t>
+          <t>7916</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Virginie - Arry (57)</t>
+          <t>maëlia-j</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -18713,14 +19385,14 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>8.175020190484399e+17</v>
+        <v>6.905171170568438e+17</v>
       </c>
       <c r="R137" s="2" t="n">
-        <v>44260.87813041667</v>
+        <v>44265.84598695602</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>&lt;@!817502019048439889&gt;</t>
+          <t>&lt;@690517117056843836&gt;</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
@@ -18730,14 +19402,10 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Virginie</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>Virginie - Arry (57)</t>
-        </is>
-      </c>
+          <t>maëlia-j</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr"/>
       <c r="W137" t="b">
         <v>0</v>
       </c>
@@ -18749,17 +19417,17 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047519089295381 name="Club Jeunes d'Arry"&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC137" t="b">
@@ -18767,13 +19435,18 @@
       </c>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -18787,14 +19460,10 @@
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>6ab935bd837b64502edfb010394ca0de</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/294200564357791745/6ab935bd837b64502edfb010394ca0de.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -18802,40 +19471,40 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I138" s="2" t="n">
-        <v>42816.83889496528</v>
+        <v>44260.87580780093</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>0867</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Cédric - Rennes (35)</t>
+          <t>Virginie - Arry (57)</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -18845,18 +19514,18 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>2.942005643577917e+17</v>
+        <v>8.175020190484399e+17</v>
       </c>
       <c r="R138" s="2" t="n">
-        <v>44260.74857097222</v>
+        <v>44260.87813041667</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>&lt;@!294200564357791745&gt;</t>
+          <t>&lt;@!817502019048439889&gt;</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
@@ -18866,12 +19535,12 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Cédric</t>
+          <t>Virginie</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Cédric - Rennes (35)</t>
+          <t>Virginie - Arry (57)</t>
         </is>
       </c>
       <c r="W138" t="b">
@@ -18885,17 +19554,17 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047519089295381 name="Club Jeunes d'Arry"&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC138" t="b">
@@ -18903,13 +19572,18 @@
       </c>
       <c r="AD138" t="inlineStr">
         <is>
-          <t>Administrateurs</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>Club Jeunes d'Arry</t>
         </is>
       </c>
     </row>
@@ -18923,51 +19597,55 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6ab935bd837b64502edfb010394ca0de</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>https://cdn.discordapp.com/avatars/294200564357791745/6ab935bd837b64502edfb010394ca0de.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>#e91e63</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>#e91e63</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>42816.83889496528</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>blurple</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
           <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>#a84300</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>#a84300</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="n">
-        <v>44251.47837539352</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>blurple</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
-        </is>
-      </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Hanna.cnlr</t>
+          <t>Cédric - Rennes (35)</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -18977,18 +19655,18 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>8.140965035754127e+17</v>
+        <v>2.942005643577917e+17</v>
       </c>
       <c r="R139" s="2" t="n">
-        <v>44251.72253608796</v>
+        <v>44260.74857097222</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>&lt;@814096503575412747&gt;</t>
+          <t>&lt;@!294200564357791745&gt;</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -18998,10 +19676,14 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Hanna.cnlr</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr"/>
+          <t>Cédric</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>Cédric - Rennes (35)</t>
+        </is>
+      </c>
       <c r="W139" t="b">
         <v>0</v>
       </c>
@@ -19013,17 +19695,17 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC139" t="b">
@@ -19031,13 +19713,18 @@
       </c>
       <c r="AD139" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Administrateurs</t>
         </is>
       </c>
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
         </is>
       </c>
     </row>
@@ -19054,7 +19741,7 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -19062,25 +19749,25 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I140" s="2" t="n">
-        <v>44253.44693829861</v>
+        <v>44251.47837539352</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -19090,12 +19777,12 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Lana - Chamarande (91)</t>
+          <t>Hanna.cnlr</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -19109,14 +19796,14 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>8.148098868859372e+17</v>
+        <v>8.140965035754127e+17</v>
       </c>
       <c r="R140" s="2" t="n">
-        <v>44253.44805060185</v>
+        <v>44251.72253608796</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>&lt;@!814809886885937162&gt;</t>
+          <t>&lt;@814096503575412747&gt;</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -19126,14 +19813,10 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>Lana du CJ de Chamarande</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>Lana - Chamarande (91)</t>
-        </is>
-      </c>
+          <t>Hanna.cnlr</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr"/>
       <c r="W140" t="b">
         <v>0</v>
       </c>
@@ -19150,7 +19833,7 @@
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047099227930654 name='Club Jeunes de Chamarande'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr">
@@ -19163,13 +19846,18 @@
       </c>
       <c r="AD140" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -19186,7 +19874,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -19203,16 +19891,16 @@
         </is>
       </c>
       <c r="I141" s="2" t="n">
-        <v>44246.87917717593</v>
+        <v>44253.44693829861</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -19222,12 +19910,12 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Sarah - Chameyrat (19)</t>
+          <t>Lana - Chamarande (91)</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -19241,14 +19929,14 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>8.124298099507855e+17</v>
+        <v>8.148098868859372e+17</v>
       </c>
       <c r="R141" s="2" t="n">
-        <v>44248.81737181713</v>
+        <v>44253.44805060185</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>&lt;@!812429809950785597&gt;</t>
+          <t>&lt;@!814809886885937162&gt;</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -19258,12 +19946,12 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Sarah CJ de Chameyrat</t>
+          <t>Lana du CJ de Chamarande</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Sarah - Chameyrat (19)</t>
+          <t>Lana - Chamarande (91)</t>
         </is>
       </c>
       <c r="W141" t="b">
@@ -19282,7 +19970,7 @@
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046691360309290 name='Club Jeunes de Chameyrat'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047099227930654 name='Club Jeunes de Chamarande'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr">
@@ -19302,6 +19990,11 @@
       <c r="AF141" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chamarande</t>
         </is>
       </c>
     </row>
@@ -19318,7 +20011,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -19335,16 +20028,16 @@
         </is>
       </c>
       <c r="I142" s="2" t="n">
-        <v>44272.64449244213</v>
+        <v>44246.87917717593</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -19354,12 +20047,12 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Léandra - Luynes (37)</t>
+          <t>Sarah - Chameyrat (19)</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -19373,14 +20066,14 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>8.217668475560919e+17</v>
+        <v>8.124298099507855e+17</v>
       </c>
       <c r="R142" s="2" t="n">
-        <v>44272.64921679398</v>
+        <v>44248.81737181713</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>&lt;@!821766847556091944&gt;</t>
+          <t>&lt;@!812429809950785597&gt;</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -19390,12 +20083,12 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Léandra cj de luynes</t>
+          <t>Sarah CJ de Chameyrat</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>Léandra - Luynes (37)</t>
+          <t>Sarah - Chameyrat (19)</t>
         </is>
       </c>
       <c r="W142" t="b">
@@ -19414,7 +20107,7 @@
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046691360309290 name='Club Jeunes de Chameyrat'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr">
@@ -19434,6 +20127,11 @@
       <c r="AF142" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Chameyrat</t>
         </is>
       </c>
     </row>
@@ -19447,14 +20145,10 @@
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>b606da54ba3289eef99b838e402f3ea2</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/814554700983566356/b606da54ba3289eef99b838e402f3ea2.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -19471,16 +20165,16 @@
         </is>
       </c>
       <c r="I143" s="2" t="n">
-        <v>44252.74275936343</v>
+        <v>44272.64449244213</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -19490,12 +20184,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Elsa - Lons-le-Saunier (39)</t>
+          <t>Léandra - Luynes (37)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -19509,14 +20203,14 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>8.145547009835663e+17</v>
+        <v>8.217668475560919e+17</v>
       </c>
       <c r="R143" s="2" t="n">
-        <v>44252.74508498843</v>
+        <v>44272.64921679398</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>&lt;@!814554700983566356&gt;</t>
+          <t>&lt;@!821766847556091944&gt;</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -19526,12 +20220,12 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Elsa CJ Lons Le Saunier</t>
+          <t>Léandra cj de luynes</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Elsa - Lons-le-Saunier (39)</t>
+          <t>Léandra - Luynes (37)</t>
         </is>
       </c>
       <c r="W143" t="b">
@@ -19550,7 +20244,7 @@
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046942306304011 name='Club Jeunes de Lons-le-Saunier'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
@@ -19570,6 +20264,11 @@
       <c r="AF143" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -19583,10 +20282,14 @@
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>b606da54ba3289eef99b838e402f3ea2</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/814554700983566356/b606da54ba3289eef99b838e402f3ea2.webp?size=1024</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -19603,16 +20306,16 @@
         </is>
       </c>
       <c r="I144" s="2" t="n">
-        <v>44260.75008159722</v>
+        <v>44252.74275936343</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -19622,12 +20325,12 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Stéphane - Thionville (57)</t>
+          <t>Elsa - Lons-le-Saunier (39)</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -19641,14 +20344,14 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>8.174564573970432e+17</v>
+        <v>8.145547009835663e+17</v>
       </c>
       <c r="R144" s="2" t="n">
-        <v>44260.75081932871</v>
+        <v>44252.74508498843</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>&lt;@!817456457397043241&gt;</t>
+          <t>&lt;@!814554700983566356&gt;</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -19658,12 +20361,12 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Stephane (Thionville)</t>
+          <t>Elsa CJ Lons Le Saunier</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Stéphane - Thionville (57)</t>
+          <t>Elsa - Lons-le-Saunier (39)</t>
         </is>
       </c>
       <c r="W144" t="b">
@@ -19682,7 +20385,7 @@
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046942306304011 name='Club Jeunes de Lons-le-Saunier'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr">
@@ -19702,6 +20405,11 @@
       <c r="AF144" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Lons-le-Saunier</t>
         </is>
       </c>
     </row>
@@ -19718,7 +20426,7 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -19726,25 +20434,25 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I145" s="2" t="n">
-        <v>44147.58521078704</v>
+        <v>44260.75008159722</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -19754,12 +20462,12 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Lucie mages</t>
+          <t>Stéphane - Thionville (57)</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -19773,14 +20481,14 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>7.764468814032404e+17</v>
+        <v>8.174564573970432e+17</v>
       </c>
       <c r="R145" s="2" t="n">
-        <v>44271.327469375</v>
+        <v>44260.75081932871</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>&lt;@776446881403240458&gt;</t>
+          <t>&lt;@!817456457397043241&gt;</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -19790,10 +20498,14 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Lucie mages</t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr"/>
+          <t>Stephane (Thionville)</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Stéphane - Thionville (57)</t>
+        </is>
+      </c>
       <c r="W145" t="b">
         <v>0</v>
       </c>
@@ -19810,7 +20522,7 @@
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr">
@@ -19823,13 +20535,18 @@
       </c>
       <c r="AD145" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Thionville</t>
         </is>
       </c>
     </row>
@@ -19839,48 +20556,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.unknown: -1&gt; name='Arrive sur le Discord' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.unknown: -1&gt; name='Arrive sur le Discord' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>71d0d4dc560edb60e84d931f82e8d570</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/818564026237452350/71d0d4dc560edb60e84d931f82e8d570.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I146" s="2" t="n">
-        <v>44263.80638934028</v>
+        <v>44147.58521078704</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -19890,12 +20599,12 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>🐶 Ohana</t>
+          <t>Lucie mages</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -19905,18 +20614,18 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>8.185640262374523e+17</v>
+        <v>7.764468814032404e+17</v>
       </c>
       <c r="R146" s="2" t="n">
-        <v>44294.42471081018</v>
+        <v>44271.327469375</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>&lt;@!818564026237452350&gt;</t>
+          <t>&lt;@776446881403240458&gt;</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
@@ -19926,14 +20635,10 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Ohana</t>
-        </is>
-      </c>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>🐶 Ohana</t>
-        </is>
-      </c>
+          <t>Lucie mages</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr"/>
       <c r="W146" t="b">
         <v>0</v>
       </c>
@@ -19945,17 +20650,17 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=829659734285484053 name='laSPAdata'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC146" t="b">
@@ -19963,13 +20668,18 @@
       </c>
       <c r="AD146" t="inlineStr">
         <is>
-          <t>Modérateurs</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -19979,40 +20689,48 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.unknown: -1&gt; name='Arrive sur le Discord' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.unknown: -1&gt; name='Arrive sur le Discord' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>71d0d4dc560edb60e84d931f82e8d570</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/avatars/818564026237452350/71d0d4dc560edb60e84d931f82e8d570.webp?size=1024</t>
         </is>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="I147" s="2" t="n">
-        <v>44249.62504599537</v>
+        <v>44263.80638934028</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -20022,12 +20740,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Lily - Rennes (35)</t>
+          <t>🐶 Ohana</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -20037,18 +20755,18 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>8.134248794912195e+17</v>
+        <v>8.185640262374523e+17</v>
       </c>
       <c r="R147" s="2" t="n">
-        <v>44249.62520314815</v>
+        <v>44294.42471081018</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>&lt;@!813424879491219456&gt;</t>
+          <t>&lt;@!818564026237452350&gt;</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
@@ -20058,12 +20776,12 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Lily CJ de Rennes</t>
+          <t>Ohana</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Lily - Rennes (35)</t>
+          <t>🐶 Ohana</t>
         </is>
       </c>
       <c r="W147" t="b">
@@ -20077,17 +20795,17 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=829659734285484053 name='laSPAdata'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC147" t="b">
@@ -20095,13 +20813,18 @@
       </c>
       <c r="AD147" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Modérateurs</t>
         </is>
       </c>
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -20126,16 +20849,16 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I148" s="2" t="n">
-        <v>44261.46871645833</v>
+        <v>44249.62504599537</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -20154,12 +20877,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>5636</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Naïs</t>
+          <t>Lily - Rennes (35)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -20173,14 +20896,14 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>8.177168819509002e+17</v>
+        <v>8.134248794912195e+17</v>
       </c>
       <c r="R148" s="2" t="n">
-        <v>44261.47112094907</v>
+        <v>44249.62520314815</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>&lt;@817716881950900234&gt;</t>
+          <t>&lt;@!813424879491219456&gt;</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
@@ -20190,10 +20913,14 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Naïs</t>
-        </is>
-      </c>
-      <c r="V148" t="inlineStr"/>
+          <t>Lily CJ de Rennes</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>Lily - Rennes (35)</t>
+        </is>
+      </c>
       <c r="W148" t="b">
         <v>0</v>
       </c>
@@ -20210,7 +20937,7 @@
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
@@ -20223,13 +20950,18 @@
       </c>
       <c r="AD148" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE148" t="inlineStr"/>
       <c r="AF148" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Rennes</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20978,7 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -20254,25 +20986,25 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I149" s="2" t="n">
-        <v>44263.79780621528</v>
+        <v>44261.46871645833</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -20282,12 +21014,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>5636</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Caroline - Thionville (57)</t>
+          <t>Naïs</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -20301,14 +21033,14 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>8.185609158171034e+17</v>
+        <v>8.177168819509002e+17</v>
       </c>
       <c r="R149" s="2" t="n">
-        <v>44263.7987427662</v>
+        <v>44261.47112094907</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>&lt;@!818560915817103370&gt;</t>
+          <t>&lt;@817716881950900234&gt;</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
@@ -20318,14 +21050,10 @@
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>caroline enc.CJ Thionville</t>
-        </is>
-      </c>
-      <c r="V149" t="inlineStr">
-        <is>
-          <t>Caroline - Thionville (57)</t>
-        </is>
-      </c>
+          <t>Naïs</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr"/>
       <c r="W149" t="b">
         <v>0</v>
       </c>
@@ -20342,7 +21070,7 @@
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
@@ -20355,13 +21083,18 @@
       </c>
       <c r="AD149" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AE149" t="inlineStr"/>
       <c r="AF149" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
         </is>
       </c>
     </row>
@@ -20378,7 +21111,7 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -20386,25 +21119,25 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I150" s="2" t="n">
-        <v>44272.73527208334</v>
+        <v>44263.79780621528</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -20414,12 +21147,12 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Owen - Luynes (37)</t>
+          <t>Caroline - Thionville (57)</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -20433,14 +21166,14 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>8.217997449967698e+17</v>
+        <v>8.185609158171034e+17</v>
       </c>
       <c r="R150" s="2" t="n">
-        <v>44273.70411600694</v>
+        <v>44263.7987427662</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>&lt;@!821799744996769822&gt;</t>
+          <t>&lt;@!818560915817103370&gt;</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
@@ -20450,12 +21183,12 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Owen du CJ de luyne</t>
+          <t>caroline enc.CJ Thionville</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Owen - Luynes (37)</t>
+          <t>Caroline - Thionville (57)</t>
         </is>
       </c>
       <c r="W150" t="b">
@@ -20474,7 +21207,7 @@
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
@@ -20487,13 +21220,18 @@
       </c>
       <c r="AD150" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Thionville</t>
         </is>
       </c>
     </row>
@@ -20503,18 +21241,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - 2 restants' application_id=432980957394370572 session_id=None emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - 2 restants' application_id=432980957394370572 session_id=None emoji=None&gt;</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F151" t="b">
@@ -20531,31 +21265,31 @@
         </is>
       </c>
       <c r="I151" s="2" t="n">
-        <v>43932.57177248842</v>
+        <v>44272.73527208334</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>8476</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Valentin - Vaux-le-Pénil (77)</t>
+          <t>Owen - Luynes (37)</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -20569,14 +21303,14 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>6.985286204231517e+17</v>
+        <v>8.217997449967698e+17</v>
       </c>
       <c r="R151" s="2" t="n">
-        <v>44258.69416482639</v>
+        <v>44273.70411600694</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>&lt;@!698528620423151706&gt;</t>
+          <t>&lt;@!821799744996769822&gt;</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -20586,12 +21320,12 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Valentin CJ vaux-le-pénil</t>
+          <t>Owen du CJ de luyne</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Valentin - Vaux-le-Pénil (77)</t>
+          <t>Owen - Luynes (37)</t>
         </is>
       </c>
       <c r="W151" t="b">
@@ -20605,17 +21339,17 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC151" t="b">
@@ -20630,6 +21364,11 @@
       <c r="AF151" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Luynes</t>
         </is>
       </c>
     </row>
@@ -20643,14 +21382,10 @@
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>61e5edddf72d399f97022dd113b99a30</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/739521549132103712/61e5edddf72d399f97022dd113b99a30.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -20658,40 +21393,40 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I152" s="2" t="n">
-        <v>44045.69070554398</v>
+        <v>43932.57177248842</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>7405</t>
+          <t>8476</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Stephane - Thionville (57)</t>
+          <t>Valentin - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -20705,14 +21440,14 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>7.395215491321037e+17</v>
+        <v>6.985286204231517e+17</v>
       </c>
       <c r="R152" s="2" t="n">
-        <v>44260.8014225463</v>
+        <v>44258.69416482639</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>&lt;@!739521549132103712&gt;</t>
+          <t>&lt;@!698528620423151706&gt;</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -20722,12 +21457,12 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>sgodefroy</t>
+          <t>Valentin CJ vaux-le-pénil</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Stephane - Thionville (57)</t>
+          <t>Valentin - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="W152" t="b">
@@ -20741,17 +21476,17 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AC152" t="b">
@@ -20759,13 +21494,18 @@
       </c>
       <c r="AD152" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AE152" t="inlineStr"/>
       <c r="AF152" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Vaux-le-Pénil</t>
         </is>
       </c>
     </row>
@@ -20781,12 +21521,12 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>24bb0f3028ae685881d392acb7d02817</t>
+          <t>61e5edddf72d399f97022dd113b99a30</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/817455331637461033/24bb0f3028ae685881d392acb7d02817.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/739521549132103712/61e5edddf72d399f97022dd113b99a30.webp?size=1024</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -20803,16 +21543,16 @@
         </is>
       </c>
       <c r="I153" s="2" t="n">
-        <v>44260.7469750926</v>
+        <v>44045.69070554398</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -20822,12 +21562,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>6316</t>
+          <t>7405</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Romane - Châteaubourg (35)</t>
+          <t>Stephane - Thionville (57)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -20841,14 +21581,14 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>8.17455331637461e+17</v>
+        <v>7.395215491321037e+17</v>
       </c>
       <c r="R153" s="2" t="n">
-        <v>44260.78214216435</v>
+        <v>44260.8014225463</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>&lt;@!817455331637461033&gt;</t>
+          <t>&lt;@!739521549132103712&gt;</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -20858,12 +21598,12 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Romane Chateaubourg</t>
+          <t>sgodefroy</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>Romane - Châteaubourg (35)</t>
+          <t>Stephane - Thionville (57)</t>
         </is>
       </c>
       <c r="W153" t="b">
@@ -20882,7 +21622,7 @@
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr">
@@ -20902,6 +21642,11 @@
       <c r="AF153" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Thionville</t>
         </is>
       </c>
     </row>
@@ -20917,12 +21662,12 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4a43a38d70f3d741c51fea99b5a2fefa</t>
+          <t>24bb0f3028ae685881d392acb7d02817</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/797583554988474418/4a43a38d70f3d741c51fea99b5a2fefa.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/817455331637461033/24bb0f3028ae685881d392acb7d02817.webp?size=1024</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -20930,25 +21675,25 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I154" s="2" t="n">
-        <v>44205.91131822917</v>
+        <v>44260.7469750926</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -20958,12 +21703,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>7769</t>
+          <t>6316</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Zoé- Forbach (57)</t>
+          <t>Romane - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -20977,14 +21722,14 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>7.975835549884744e+17</v>
+        <v>8.17455331637461e+17</v>
       </c>
       <c r="R154" s="2" t="n">
-        <v>44297.69940679398</v>
+        <v>44260.78214216435</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>&lt;@797583554988474418&gt;</t>
+          <t>&lt;@!817455331637461033&gt;</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -20994,10 +21739,14 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Zoé- Forbach (57)</t>
-        </is>
-      </c>
-      <c r="V154" t="inlineStr"/>
+          <t>Romane Chateaubourg</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>Romane - Châteaubourg (35)</t>
+        </is>
+      </c>
       <c r="W154" t="b">
         <v>0</v>
       </c>
@@ -21014,7 +21763,7 @@
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr">
@@ -21027,13 +21776,155 @@
       </c>
       <c r="AD154" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AE154" t="inlineStr"/>
       <c r="AF154" t="inlineStr">
         <is>
           <t>offline</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Châteaubourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4a43a38d70f3d741c51fea99b5a2fefa</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://cdn.discordapp.com/avatars/797583554988474418/4a43a38d70f3d741c51fea99b5a2fefa.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>#c6b211</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>#c6b211</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>44205.91131822917</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>7769</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Zoé- Forbach (57)</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Clubs Jeunes SPA</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>&lt;Permissions value=6546775616&gt;</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>7.975835549884744e+17</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>44297.69940679398</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>&lt;@797583554988474418&gt;</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>Zoé- Forbach (57)</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="b">
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>&lt;PublicUserFlags value=0&gt;</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AC155" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>Jeunes</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>Club Jeunes de Forbach</t>
         </is>
       </c>
     </row>
